--- a/point_01/result/result.xlsx
+++ b/point_01/result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bennkyou\Paper\atsukko-ego\atsukko-ego\point_01\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8085C-54DB-4C6C-9303-FE2B5DC08ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5FB4D-1058-4C61-A7ED-1E41A02E834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FRAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>0.9280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inference(ms,↓)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,7 +474,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,28 +486,30 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
@@ -508,28 +517,30 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="C2" s="7">
         <v>48.28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>0.91410000000000002</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>48.28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
@@ -537,28 +548,30 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="C3" s="7">
         <v>47.78</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>37.29</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>93.04</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>0.91410000000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>47.78</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>0.9304</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
